--- a/Gantt_Chart_Group30.xlsx
+++ b/Gantt_Chart_Group30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rook\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/fa000593_ucf_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{776020AB-E946-446C-B494-50D1CD53D26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC962EC-A59C-4C29-B56E-934D994A3A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Project Start:</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Unknown??</t>
+  </si>
+  <si>
+    <t>Fabian</t>
   </si>
 </sst>
 </file>
@@ -934,38 +937,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1526,25 +1529,25 @@
   <dimension ref="A1:BE36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="57" width="2.54296875" customWidth="1"/>
-    <col min="62" max="63" width="10.26953125"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" hidden="1" customWidth="1"/>
+    <col min="9" max="57" width="2.5546875" customWidth="1"/>
+    <col min="62" max="63" width="10.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:57" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
@@ -1554,129 +1557,129 @@
       <c r="F1" s="78"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-    </row>
-    <row r="2" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+    </row>
+    <row r="2" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="87">
+      <c r="E2" s="88">
         <v>45663</v>
       </c>
-      <c r="F2" s="88"/>
-    </row>
-    <row r="3" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="89"/>
+    </row>
+    <row r="3" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="88">
         <f ca="1">TODAY()</f>
         <v>45673</v>
       </c>
-      <c r="F3" s="88"/>
-    </row>
-    <row r="4" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="89"/>
+    </row>
+    <row r="4" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>45663</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="84">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>45670</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="84">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>45677</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="84">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>45684</v>
       </c>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="84">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>45691</v>
       </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="84">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>45698</v>
       </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="84">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>45705</v>
       </c>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="86"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="G5" s="6"/>
       <c r="I5" s="13">
@@ -1876,7 +1879,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:57" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -2094,17 +2097,17 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="91">
+      <c r="E7" s="87">
         <v>45704</v>
       </c>
-      <c r="F7" s="91"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="str">
         <f t="shared" ref="H7:H32" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2144,14 +2147,14 @@
       <c r="AN7" s="64"/>
       <c r="AO7" s="64"/>
       <c r="AP7" s="64"/>
-      <c r="AQ7" s="93"/>
+      <c r="AQ7" s="85"/>
       <c r="AR7" s="64"/>
       <c r="AS7" s="64"/>
       <c r="AT7" s="64"/>
       <c r="AU7" s="64"/>
       <c r="AV7" s="64"/>
       <c r="AW7" s="64"/>
-      <c r="AX7" s="92"/>
+      <c r="AX7" s="84"/>
       <c r="AY7" s="64"/>
       <c r="AZ7" s="64"/>
       <c r="BA7" s="64"/>
@@ -2160,17 +2163,17 @@
       <c r="BD7" s="64"/>
       <c r="BE7" s="64"/>
     </row>
-    <row r="8" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="91">
+      <c r="E8" s="87">
         <v>45697</v>
       </c>
-      <c r="F8" s="91"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="64"/>
@@ -2207,14 +2210,14 @@
       <c r="AN8" s="64"/>
       <c r="AO8" s="64"/>
       <c r="AP8" s="64"/>
-      <c r="AQ8" s="93"/>
+      <c r="AQ8" s="85"/>
       <c r="AR8" s="64"/>
       <c r="AS8" s="64"/>
       <c r="AT8" s="64"/>
       <c r="AU8" s="64"/>
       <c r="AV8" s="64"/>
       <c r="AW8" s="64"/>
-      <c r="AX8" s="92"/>
+      <c r="AX8" s="84"/>
       <c r="AY8" s="64"/>
       <c r="AZ8" s="64"/>
       <c r="BA8" s="64"/>
@@ -2223,7 +2226,7 @@
       <c r="BD8" s="64"/>
       <c r="BE8" s="64"/>
     </row>
-    <row r="9" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="24" t="s">
         <v>45</v>
@@ -2271,14 +2274,14 @@
       <c r="AN9" s="64"/>
       <c r="AO9" s="64"/>
       <c r="AP9" s="64"/>
-      <c r="AQ9" s="93"/>
+      <c r="AQ9" s="85"/>
       <c r="AR9" s="64"/>
       <c r="AS9" s="64"/>
       <c r="AT9" s="64"/>
       <c r="AU9" s="64"/>
       <c r="AV9" s="64"/>
       <c r="AW9" s="64"/>
-      <c r="AX9" s="92"/>
+      <c r="AX9" s="84"/>
       <c r="AY9" s="64"/>
       <c r="AZ9" s="64"/>
       <c r="BA9" s="64"/>
@@ -2287,7 +2290,7 @@
       <c r="BD9" s="64"/>
       <c r="BE9" s="64"/>
     </row>
-    <row r="10" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="29" t="s">
         <v>26</v>
@@ -2343,14 +2346,14 @@
       <c r="AN10" s="64"/>
       <c r="AO10" s="64"/>
       <c r="AP10" s="64"/>
-      <c r="AQ10" s="93"/>
+      <c r="AQ10" s="85"/>
       <c r="AR10" s="64"/>
       <c r="AS10" s="64"/>
       <c r="AT10" s="64"/>
       <c r="AU10" s="64"/>
       <c r="AV10" s="64"/>
       <c r="AW10" s="64"/>
-      <c r="AX10" s="92"/>
+      <c r="AX10" s="84"/>
       <c r="AY10" s="64"/>
       <c r="AZ10" s="64"/>
       <c r="BA10" s="64"/>
@@ -2359,7 +2362,7 @@
       <c r="BD10" s="64"/>
       <c r="BE10" s="64"/>
     </row>
-    <row r="11" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
       <c r="B11" s="29" t="s">
         <v>28</v>
@@ -2413,14 +2416,14 @@
       <c r="AN11" s="64"/>
       <c r="AO11" s="64"/>
       <c r="AP11" s="64"/>
-      <c r="AQ11" s="93"/>
+      <c r="AQ11" s="85"/>
       <c r="AR11" s="64"/>
       <c r="AS11" s="64"/>
       <c r="AT11" s="64"/>
       <c r="AU11" s="64"/>
       <c r="AV11" s="64"/>
       <c r="AW11" s="64"/>
-      <c r="AX11" s="92"/>
+      <c r="AX11" s="84"/>
       <c r="AY11" s="64"/>
       <c r="AZ11" s="64"/>
       <c r="BA11" s="64"/>
@@ -2429,7 +2432,7 @@
       <c r="BD11" s="64"/>
       <c r="BE11" s="64"/>
     </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="29" t="s">
         <v>44</v>
@@ -2480,14 +2483,14 @@
       <c r="AN12" s="64"/>
       <c r="AO12" s="64"/>
       <c r="AP12" s="64"/>
-      <c r="AQ12" s="93"/>
+      <c r="AQ12" s="85"/>
       <c r="AR12" s="64"/>
       <c r="AS12" s="64"/>
       <c r="AT12" s="64"/>
       <c r="AU12" s="64"/>
       <c r="AV12" s="64"/>
       <c r="AW12" s="64"/>
-      <c r="AX12" s="92"/>
+      <c r="AX12" s="84"/>
       <c r="AY12" s="64"/>
       <c r="AZ12" s="64"/>
       <c r="BA12" s="64"/>
@@ -2496,12 +2499,14 @@
       <c r="BD12" s="64"/>
       <c r="BE12" s="64"/>
     </row>
-    <row r="13" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="D13" s="31">
         <v>0</v>
       </c>
@@ -2550,14 +2555,14 @@
       <c r="AN13" s="64"/>
       <c r="AO13" s="64"/>
       <c r="AP13" s="64"/>
-      <c r="AQ13" s="93"/>
+      <c r="AQ13" s="85"/>
       <c r="AR13" s="64"/>
       <c r="AS13" s="64"/>
       <c r="AT13" s="64"/>
       <c r="AU13" s="64"/>
       <c r="AV13" s="64"/>
       <c r="AW13" s="64"/>
-      <c r="AX13" s="92"/>
+      <c r="AX13" s="84"/>
       <c r="AY13" s="64"/>
       <c r="AZ13" s="64"/>
       <c r="BA13" s="64"/>
@@ -2566,17 +2571,17 @@
       <c r="BD13" s="64"/>
       <c r="BE13" s="64"/>
     </row>
-    <row r="14" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="90"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="64"/>
@@ -2613,14 +2618,14 @@
       <c r="AN14" s="64"/>
       <c r="AO14" s="64"/>
       <c r="AP14" s="64"/>
-      <c r="AQ14" s="93"/>
+      <c r="AQ14" s="85"/>
       <c r="AR14" s="64"/>
       <c r="AS14" s="64"/>
       <c r="AT14" s="64"/>
       <c r="AU14" s="64"/>
       <c r="AV14" s="64"/>
       <c r="AW14" s="64"/>
-      <c r="AX14" s="92"/>
+      <c r="AX14" s="84"/>
       <c r="AY14" s="64"/>
       <c r="AZ14" s="64"/>
       <c r="BA14" s="64"/>
@@ -2629,7 +2634,7 @@
       <c r="BD14" s="64"/>
       <c r="BE14" s="64"/>
     </row>
-    <row r="15" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
         <v>23</v>
@@ -2677,14 +2682,14 @@
       <c r="AN15" s="64"/>
       <c r="AO15" s="64"/>
       <c r="AP15" s="64"/>
-      <c r="AQ15" s="93"/>
+      <c r="AQ15" s="85"/>
       <c r="AR15" s="64"/>
       <c r="AS15" s="64"/>
       <c r="AT15" s="64"/>
       <c r="AU15" s="64"/>
       <c r="AV15" s="64"/>
       <c r="AW15" s="64"/>
-      <c r="AX15" s="92"/>
+      <c r="AX15" s="84"/>
       <c r="AY15" s="64"/>
       <c r="AZ15" s="64"/>
       <c r="BA15" s="64"/>
@@ -2693,7 +2698,7 @@
       <c r="BD15" s="64"/>
       <c r="BE15" s="64"/>
     </row>
-    <row r="16" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="39" t="s">
         <v>32</v>
@@ -2749,14 +2754,14 @@
       <c r="AN16" s="64"/>
       <c r="AO16" s="64"/>
       <c r="AP16" s="64"/>
-      <c r="AQ16" s="93"/>
+      <c r="AQ16" s="85"/>
       <c r="AR16" s="64"/>
       <c r="AS16" s="64"/>
       <c r="AT16" s="64"/>
       <c r="AU16" s="64"/>
       <c r="AV16" s="64"/>
       <c r="AW16" s="64"/>
-      <c r="AX16" s="92"/>
+      <c r="AX16" s="84"/>
       <c r="AY16" s="64"/>
       <c r="AZ16" s="64"/>
       <c r="BA16" s="64"/>
@@ -2765,7 +2770,7 @@
       <c r="BD16" s="64"/>
       <c r="BE16" s="64"/>
     </row>
-    <row r="17" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="39" t="s">
         <v>33</v>
@@ -2821,14 +2826,14 @@
       <c r="AN17" s="64"/>
       <c r="AO17" s="64"/>
       <c r="AP17" s="64"/>
-      <c r="AQ17" s="93"/>
+      <c r="AQ17" s="85"/>
       <c r="AR17" s="64"/>
       <c r="AS17" s="64"/>
       <c r="AT17" s="64"/>
       <c r="AU17" s="64"/>
       <c r="AV17" s="64"/>
       <c r="AW17" s="64"/>
-      <c r="AX17" s="92"/>
+      <c r="AX17" s="84"/>
       <c r="AY17" s="64"/>
       <c r="AZ17" s="64"/>
       <c r="BA17" s="64"/>
@@ -2837,7 +2842,7 @@
       <c r="BD17" s="64"/>
       <c r="BE17" s="64"/>
     </row>
-    <row r="18" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="39" t="s">
         <v>31</v>
@@ -2893,14 +2898,14 @@
       <c r="AN18" s="64"/>
       <c r="AO18" s="64"/>
       <c r="AP18" s="64"/>
-      <c r="AQ18" s="93"/>
+      <c r="AQ18" s="85"/>
       <c r="AR18" s="64"/>
       <c r="AS18" s="64"/>
       <c r="AT18" s="64"/>
       <c r="AU18" s="64"/>
       <c r="AV18" s="64"/>
       <c r="AW18" s="64"/>
-      <c r="AX18" s="92"/>
+      <c r="AX18" s="84"/>
       <c r="AY18" s="64"/>
       <c r="AZ18" s="64"/>
       <c r="BA18" s="64"/>
@@ -2909,7 +2914,7 @@
       <c r="BD18" s="64"/>
       <c r="BE18" s="64"/>
     </row>
-    <row r="19" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="39" t="s">
         <v>30</v>
@@ -2920,10 +2925,10 @@
       <c r="D19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="86">
         <v>45671</v>
       </c>
-      <c r="F19" s="90"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="str">
         <f t="shared" si="5"/>
@@ -2937,7 +2942,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
-      <c r="Q19" s="89"/>
+      <c r="Q19" s="83"/>
       <c r="R19" s="64"/>
       <c r="S19" s="64"/>
       <c r="T19" s="64"/>
@@ -2963,14 +2968,14 @@
       <c r="AN19" s="64"/>
       <c r="AO19" s="64"/>
       <c r="AP19" s="64"/>
-      <c r="AQ19" s="93"/>
+      <c r="AQ19" s="85"/>
       <c r="AR19" s="64"/>
       <c r="AS19" s="64"/>
       <c r="AT19" s="64"/>
       <c r="AU19" s="64"/>
       <c r="AV19" s="64"/>
       <c r="AW19" s="64"/>
-      <c r="AX19" s="92"/>
+      <c r="AX19" s="84"/>
       <c r="AY19" s="64"/>
       <c r="AZ19" s="64"/>
       <c r="BA19" s="64"/>
@@ -2979,7 +2984,7 @@
       <c r="BD19" s="64"/>
       <c r="BE19" s="64"/>
     </row>
-    <row r="20" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="42" t="s">
         <v>24</v>
@@ -3027,14 +3032,14 @@
       <c r="AN20" s="64"/>
       <c r="AO20" s="64"/>
       <c r="AP20" s="64"/>
-      <c r="AQ20" s="93"/>
+      <c r="AQ20" s="85"/>
       <c r="AR20" s="64"/>
       <c r="AS20" s="64"/>
       <c r="AT20" s="64"/>
       <c r="AU20" s="64"/>
       <c r="AV20" s="64"/>
       <c r="AW20" s="64"/>
-      <c r="AX20" s="92"/>
+      <c r="AX20" s="84"/>
       <c r="AY20" s="64"/>
       <c r="AZ20" s="64"/>
       <c r="BA20" s="64"/>
@@ -3043,7 +3048,7 @@
       <c r="BD20" s="64"/>
       <c r="BE20" s="64"/>
     </row>
-    <row r="21" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="47" t="s">
         <v>37</v>
@@ -3099,14 +3104,14 @@
       <c r="AN21" s="64"/>
       <c r="AO21" s="64"/>
       <c r="AP21" s="64"/>
-      <c r="AQ21" s="93"/>
+      <c r="AQ21" s="85"/>
       <c r="AR21" s="64"/>
       <c r="AS21" s="64"/>
       <c r="AT21" s="64"/>
       <c r="AU21" s="64"/>
       <c r="AV21" s="64"/>
       <c r="AW21" s="64"/>
-      <c r="AX21" s="92"/>
+      <c r="AX21" s="84"/>
       <c r="AY21" s="64"/>
       <c r="AZ21" s="64"/>
       <c r="BA21" s="64"/>
@@ -3115,7 +3120,7 @@
       <c r="BD21" s="64"/>
       <c r="BE21" s="64"/>
     </row>
-    <row r="22" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="47" t="s">
         <v>38</v>
@@ -3169,14 +3174,14 @@
       <c r="AN22" s="64"/>
       <c r="AO22" s="64"/>
       <c r="AP22" s="64"/>
-      <c r="AQ22" s="93"/>
+      <c r="AQ22" s="85"/>
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
       <c r="AT22" s="64"/>
       <c r="AU22" s="64"/>
       <c r="AV22" s="64"/>
       <c r="AW22" s="64"/>
-      <c r="AX22" s="92"/>
+      <c r="AX22" s="84"/>
       <c r="AY22" s="64"/>
       <c r="AZ22" s="64"/>
       <c r="BA22" s="64"/>
@@ -3185,7 +3190,7 @@
       <c r="BD22" s="64"/>
       <c r="BE22" s="64"/>
     </row>
-    <row r="23" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="47" t="s">
         <v>43</v>
@@ -3239,14 +3244,14 @@
       <c r="AN23" s="64"/>
       <c r="AO23" s="64"/>
       <c r="AP23" s="64"/>
-      <c r="AQ23" s="93"/>
+      <c r="AQ23" s="85"/>
       <c r="AR23" s="64"/>
       <c r="AS23" s="64"/>
       <c r="AT23" s="64"/>
       <c r="AU23" s="64"/>
       <c r="AV23" s="64"/>
       <c r="AW23" s="64"/>
-      <c r="AX23" s="92"/>
+      <c r="AX23" s="84"/>
       <c r="AY23" s="64"/>
       <c r="AZ23" s="64"/>
       <c r="BA23" s="64"/>
@@ -3255,7 +3260,7 @@
       <c r="BD23" s="64"/>
       <c r="BE23" s="64"/>
     </row>
-    <row r="24" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="47" t="s">
         <v>46</v>
@@ -3309,14 +3314,14 @@
       <c r="AN24" s="64"/>
       <c r="AO24" s="64"/>
       <c r="AP24" s="64"/>
-      <c r="AQ24" s="93"/>
+      <c r="AQ24" s="85"/>
       <c r="AR24" s="64"/>
       <c r="AS24" s="64"/>
       <c r="AT24" s="64"/>
       <c r="AU24" s="64"/>
       <c r="AV24" s="64"/>
       <c r="AW24" s="64"/>
-      <c r="AX24" s="92"/>
+      <c r="AX24" s="84"/>
       <c r="AY24" s="64"/>
       <c r="AZ24" s="64"/>
       <c r="BA24" s="64"/>
@@ -3325,7 +3330,7 @@
       <c r="BD24" s="64"/>
       <c r="BE24" s="64"/>
     </row>
-    <row r="25" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
         <v>30</v>
@@ -3334,10 +3339,10 @@
       <c r="D25" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="86">
         <v>45678</v>
       </c>
-      <c r="F25" s="90"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3358,7 +3363,7 @@
       <c r="U25" s="64"/>
       <c r="V25" s="64"/>
       <c r="W25" s="64"/>
-      <c r="X25" s="89"/>
+      <c r="X25" s="83"/>
       <c r="Y25" s="64"/>
       <c r="Z25" s="64"/>
       <c r="AA25" s="64"/>
@@ -3377,14 +3382,14 @@
       <c r="AN25" s="64"/>
       <c r="AO25" s="64"/>
       <c r="AP25" s="64"/>
-      <c r="AQ25" s="93"/>
+      <c r="AQ25" s="85"/>
       <c r="AR25" s="64"/>
       <c r="AS25" s="64"/>
       <c r="AT25" s="64"/>
       <c r="AU25" s="64"/>
       <c r="AV25" s="64"/>
       <c r="AW25" s="64"/>
-      <c r="AX25" s="92"/>
+      <c r="AX25" s="84"/>
       <c r="AY25" s="64"/>
       <c r="AZ25" s="64"/>
       <c r="BA25" s="64"/>
@@ -3393,7 +3398,7 @@
       <c r="BD25" s="64"/>
       <c r="BE25" s="64"/>
     </row>
-    <row r="26" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="50" t="s">
         <v>25</v>
@@ -3441,14 +3446,14 @@
       <c r="AN26" s="64"/>
       <c r="AO26" s="64"/>
       <c r="AP26" s="64"/>
-      <c r="AQ26" s="93"/>
+      <c r="AQ26" s="85"/>
       <c r="AR26" s="64"/>
       <c r="AS26" s="64"/>
       <c r="AT26" s="64"/>
       <c r="AU26" s="64"/>
       <c r="AV26" s="64"/>
       <c r="AW26" s="64"/>
-      <c r="AX26" s="92"/>
+      <c r="AX26" s="84"/>
       <c r="AY26" s="64"/>
       <c r="AZ26" s="64"/>
       <c r="BA26" s="64"/>
@@ -3457,7 +3462,7 @@
       <c r="BD26" s="64"/>
       <c r="BE26" s="64"/>
     </row>
-    <row r="27" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="55" t="s">
         <v>36</v>
@@ -3511,14 +3516,14 @@
       <c r="AN27" s="64"/>
       <c r="AO27" s="64"/>
       <c r="AP27" s="64"/>
-      <c r="AQ27" s="93"/>
+      <c r="AQ27" s="85"/>
       <c r="AR27" s="64"/>
       <c r="AS27" s="64"/>
       <c r="AT27" s="64"/>
       <c r="AU27" s="64"/>
       <c r="AV27" s="64"/>
       <c r="AW27" s="64"/>
-      <c r="AX27" s="92"/>
+      <c r="AX27" s="84"/>
       <c r="AY27" s="64"/>
       <c r="AZ27" s="64"/>
       <c r="BA27" s="64"/>
@@ -3527,12 +3532,14 @@
       <c r="BD27" s="64"/>
       <c r="BE27" s="64"/>
     </row>
-    <row r="28" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="56" t="s">
+        <v>53</v>
+      </c>
       <c r="D28" s="57">
         <v>0</v>
       </c>
@@ -3581,14 +3588,14 @@
       <c r="AN28" s="64"/>
       <c r="AO28" s="64"/>
       <c r="AP28" s="64"/>
-      <c r="AQ28" s="93"/>
+      <c r="AQ28" s="85"/>
       <c r="AR28" s="64"/>
       <c r="AS28" s="64"/>
       <c r="AT28" s="64"/>
       <c r="AU28" s="64"/>
       <c r="AV28" s="64"/>
       <c r="AW28" s="64"/>
-      <c r="AX28" s="92"/>
+      <c r="AX28" s="84"/>
       <c r="AY28" s="64"/>
       <c r="AZ28" s="64"/>
       <c r="BA28" s="64"/>
@@ -3597,7 +3604,7 @@
       <c r="BD28" s="64"/>
       <c r="BE28" s="64"/>
     </row>
-    <row r="29" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="55" t="s">
         <v>48</v>
@@ -3651,14 +3658,14 @@
       <c r="AN29" s="64"/>
       <c r="AO29" s="64"/>
       <c r="AP29" s="64"/>
-      <c r="AQ29" s="93"/>
+      <c r="AQ29" s="85"/>
       <c r="AR29" s="64"/>
       <c r="AS29" s="64"/>
       <c r="AT29" s="64"/>
       <c r="AU29" s="64"/>
       <c r="AV29" s="64"/>
       <c r="AW29" s="64"/>
-      <c r="AX29" s="92"/>
+      <c r="AX29" s="84"/>
       <c r="AY29" s="64"/>
       <c r="AZ29" s="64"/>
       <c r="BA29" s="64"/>
@@ -3667,7 +3674,7 @@
       <c r="BD29" s="64"/>
       <c r="BE29" s="64"/>
     </row>
-    <row r="30" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="55" t="s">
         <v>46</v>
@@ -3721,14 +3728,14 @@
       <c r="AN30" s="64"/>
       <c r="AO30" s="64"/>
       <c r="AP30" s="64"/>
-      <c r="AQ30" s="93"/>
+      <c r="AQ30" s="85"/>
       <c r="AR30" s="64"/>
       <c r="AS30" s="64"/>
       <c r="AT30" s="64"/>
       <c r="AU30" s="64"/>
       <c r="AV30" s="64"/>
       <c r="AW30" s="64"/>
-      <c r="AX30" s="92"/>
+      <c r="AX30" s="84"/>
       <c r="AY30" s="64"/>
       <c r="AZ30" s="64"/>
       <c r="BA30" s="64"/>
@@ -3737,7 +3744,7 @@
       <c r="BD30" s="64"/>
       <c r="BE30" s="64"/>
     </row>
-    <row r="31" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19"/>
       <c r="B31" s="55" t="s">
         <v>30</v>
@@ -3746,10 +3753,10 @@
       <c r="D31" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="90">
+      <c r="E31" s="86">
         <v>45685</v>
       </c>
-      <c r="F31" s="90"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3777,7 +3784,7 @@
       <c r="AB31" s="64"/>
       <c r="AC31" s="64"/>
       <c r="AD31" s="64"/>
-      <c r="AE31" s="89"/>
+      <c r="AE31" s="83"/>
       <c r="AF31" s="64"/>
       <c r="AG31" s="64"/>
       <c r="AH31" s="64"/>
@@ -3789,14 +3796,14 @@
       <c r="AN31" s="64"/>
       <c r="AO31" s="64"/>
       <c r="AP31" s="64"/>
-      <c r="AQ31" s="93"/>
+      <c r="AQ31" s="85"/>
       <c r="AR31" s="64"/>
       <c r="AS31" s="64"/>
       <c r="AT31" s="64"/>
       <c r="AU31" s="64"/>
       <c r="AV31" s="64"/>
       <c r="AW31" s="64"/>
-      <c r="AX31" s="92"/>
+      <c r="AX31" s="84"/>
       <c r="AY31" s="64"/>
       <c r="AZ31" s="64"/>
       <c r="BA31" s="64"/>
@@ -3805,7 +3812,7 @@
       <c r="BD31" s="64"/>
       <c r="BE31" s="64"/>
     </row>
-    <row r="32" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19"/>
       <c r="B32" s="58"/>
       <c r="C32" s="59"/>
@@ -3867,42 +3874,42 @@
       <c r="BD32" s="66"/>
       <c r="BE32" s="66"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="F34" s="77">
         <v>43113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="81"/>
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J1:AA1"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J1:AA1"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="12">
@@ -3970,21 +3977,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.1796875" style="67" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.21875" style="67" customWidth="1"/>
+    <col min="3" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" s="69" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="68"/>
     </row>
-    <row r="3" spans="2:3" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="70" t="s">
         <v>16</v>
       </c>
@@ -3995,78 +4002,78 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:3" s="72" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B6" s="74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="58" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="73"/>
     </row>
-    <row r="9" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:3" s="72" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B9" s="74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="73"/>
     </row>
-    <row r="13" spans="2:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="82" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How This Gantt Chart Was Created")</f>
         <v>► Watch How This Gantt Chart Was Created</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="73"/>
     </row>
-    <row r="15" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:3" s="72" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B15" s="74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="29" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="73"/>
     </row>
-    <row r="19" spans="2:2" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:2" s="72" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B19" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
     </row>
-    <row r="22" spans="2:2" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B22" s="75" t="s">
         <v>15</v>
       </c>

--- a/Gantt_Chart_Group30.xlsx
+++ b/Gantt_Chart_Group30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucf-my.sharepoint.com/personal/fa000593_ucf_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenri\Documents\GitHub\COP4331C-ContactManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC962EC-A59C-4C29-B56E-934D994A3A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2005B-895A-425A-B243-DF68647C5C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Project Start:</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Fabian</t>
+  </si>
+  <si>
+    <t>Floyd</t>
   </si>
 </sst>
 </file>
@@ -946,29 +949,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1529,25 +1532,25 @@
   <dimension ref="A1:BE36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" hidden="1" customWidth="1"/>
-    <col min="9" max="57" width="2.5546875" customWidth="1"/>
-    <col min="62" max="63" width="10.21875"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
+    <col min="9" max="57" width="2.54296875" customWidth="1"/>
+    <col min="62" max="63" width="10.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:57" ht="28.5" x14ac:dyDescent="0.65">
       <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
@@ -1557,129 +1560,129 @@
       <c r="F1" s="78"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-    </row>
-    <row r="2" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+    </row>
+    <row r="2" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="88">
+      <c r="E2" s="90">
         <v>45663</v>
       </c>
-      <c r="F2" s="89"/>
-    </row>
-    <row r="3" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="91"/>
+    </row>
+    <row r="3" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
-        <v>45673</v>
-      </c>
-      <c r="F3" s="89"/>
-    </row>
-    <row r="4" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45684</v>
+      </c>
+      <c r="F3" s="91"/>
+    </row>
+    <row r="4" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="87">
         <f>I5</f>
         <v>45663</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f>P5</f>
         <v>45670</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f>W5</f>
         <v>45677</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f>AD5</f>
         <v>45684</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f>AK5</f>
         <v>45691</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f>AR5</f>
         <v>45698</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f>AY5</f>
         <v>45705</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="G5" s="6"/>
       <c r="I5" s="13">
@@ -1879,7 +1882,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:57" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -2097,17 +2100,17 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="87">
+      <c r="E7" s="93">
         <v>45704</v>
       </c>
-      <c r="F7" s="87"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="str">
         <f t="shared" ref="H7:H32" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2163,17 +2166,17 @@
       <c r="BD7" s="64"/>
       <c r="BE7" s="64"/>
     </row>
-    <row r="8" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="87">
+      <c r="E8" s="93">
         <v>45697</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="64"/>
@@ -2226,7 +2229,7 @@
       <c r="BD8" s="64"/>
       <c r="BE8" s="64"/>
     </row>
-    <row r="9" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="24" t="s">
         <v>45</v>
@@ -2290,7 +2293,7 @@
       <c r="BD9" s="64"/>
       <c r="BE9" s="64"/>
     </row>
-    <row r="10" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
       <c r="B10" s="29" t="s">
         <v>26</v>
@@ -2362,7 +2365,7 @@
       <c r="BD10" s="64"/>
       <c r="BE10" s="64"/>
     </row>
-    <row r="11" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
       <c r="B11" s="29" t="s">
         <v>28</v>
@@ -2432,7 +2435,7 @@
       <c r="BD11" s="64"/>
       <c r="BE11" s="64"/>
     </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="29" t="s">
         <v>44</v>
@@ -2499,7 +2502,7 @@
       <c r="BD12" s="64"/>
       <c r="BE12" s="64"/>
     </row>
-    <row r="13" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="29" t="s">
         <v>29</v>
@@ -2571,17 +2574,17 @@
       <c r="BD13" s="64"/>
       <c r="BE13" s="64"/>
     </row>
-    <row r="14" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="64"/>
@@ -2634,7 +2637,7 @@
       <c r="BD14" s="64"/>
       <c r="BE14" s="64"/>
     </row>
-    <row r="15" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
         <v>23</v>
@@ -2698,7 +2701,7 @@
       <c r="BD15" s="64"/>
       <c r="BE15" s="64"/>
     </row>
-    <row r="16" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
       <c r="B16" s="39" t="s">
         <v>32</v>
@@ -2770,7 +2773,7 @@
       <c r="BD16" s="64"/>
       <c r="BE16" s="64"/>
     </row>
-    <row r="17" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
       <c r="B17" s="39" t="s">
         <v>33</v>
@@ -2842,7 +2845,7 @@
       <c r="BD17" s="64"/>
       <c r="BE17" s="64"/>
     </row>
-    <row r="18" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="39" t="s">
         <v>31</v>
@@ -2914,7 +2917,7 @@
       <c r="BD18" s="64"/>
       <c r="BE18" s="64"/>
     </row>
-    <row r="19" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="19"/>
       <c r="B19" s="39" t="s">
         <v>30</v>
@@ -2925,10 +2928,10 @@
       <c r="D19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="92">
         <v>45671</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="str">
         <f t="shared" si="5"/>
@@ -2984,7 +2987,7 @@
       <c r="BD19" s="64"/>
       <c r="BE19" s="64"/>
     </row>
-    <row r="20" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19"/>
       <c r="B20" s="42" t="s">
         <v>24</v>
@@ -3048,7 +3051,7 @@
       <c r="BD20" s="64"/>
       <c r="BE20" s="64"/>
     </row>
-    <row r="21" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19"/>
       <c r="B21" s="47" t="s">
         <v>37</v>
@@ -3120,12 +3123,14 @@
       <c r="BD21" s="64"/>
       <c r="BE21" s="64"/>
     </row>
-    <row r="22" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="48" t="s">
+        <v>54</v>
+      </c>
       <c r="D22" s="49">
         <v>0</v>
       </c>
@@ -3190,12 +3195,14 @@
       <c r="BD22" s="64"/>
       <c r="BE22" s="64"/>
     </row>
-    <row r="23" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19"/>
       <c r="B23" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" s="49">
         <v>0</v>
       </c>
@@ -3260,7 +3267,7 @@
       <c r="BD23" s="64"/>
       <c r="BE23" s="64"/>
     </row>
-    <row r="24" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19"/>
       <c r="B24" s="47" t="s">
         <v>46</v>
@@ -3330,19 +3337,21 @@
       <c r="BD24" s="64"/>
       <c r="BE24" s="64"/>
     </row>
-    <row r="25" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="48" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="86">
+        <v>34</v>
+      </c>
+      <c r="E25" s="92">
         <v>45678</v>
       </c>
-      <c r="F25" s="86"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3398,7 +3407,7 @@
       <c r="BD25" s="64"/>
       <c r="BE25" s="64"/>
     </row>
-    <row r="26" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19"/>
       <c r="B26" s="50" t="s">
         <v>25</v>
@@ -3462,7 +3471,7 @@
       <c r="BD26" s="64"/>
       <c r="BE26" s="64"/>
     </row>
-    <row r="27" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19"/>
       <c r="B27" s="55" t="s">
         <v>36</v>
@@ -3532,7 +3541,7 @@
       <c r="BD27" s="64"/>
       <c r="BE27" s="64"/>
     </row>
-    <row r="28" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
       <c r="B28" s="55" t="s">
         <v>47</v>
@@ -3604,7 +3613,7 @@
       <c r="BD28" s="64"/>
       <c r="BE28" s="64"/>
     </row>
-    <row r="29" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19"/>
       <c r="B29" s="55" t="s">
         <v>48</v>
@@ -3674,7 +3683,7 @@
       <c r="BD29" s="64"/>
       <c r="BE29" s="64"/>
     </row>
-    <row r="30" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19"/>
       <c r="B30" s="55" t="s">
         <v>46</v>
@@ -3744,7 +3753,7 @@
       <c r="BD30" s="64"/>
       <c r="BE30" s="64"/>
     </row>
-    <row r="31" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19"/>
       <c r="B31" s="55" t="s">
         <v>30</v>
@@ -3753,10 +3762,10 @@
       <c r="D31" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="86">
+      <c r="E31" s="92">
         <v>45685</v>
       </c>
-      <c r="F31" s="86"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3812,7 +3821,7 @@
       <c r="BD31" s="64"/>
       <c r="BE31" s="64"/>
     </row>
-    <row r="32" spans="1:57" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19"/>
       <c r="B32" s="58"/>
       <c r="C32" s="59"/>
@@ -3874,26 +3883,32 @@
       <c r="BD32" s="66"/>
       <c r="BE32" s="66"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="F34" s="77">
         <v>43113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B35" s="81"/>
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B36" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="J1:AA1"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
@@ -3904,12 +3919,6 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="12">
@@ -3977,21 +3986,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.21875" style="67" customWidth="1"/>
-    <col min="3" max="16384" width="9.21875" style="2"/>
+    <col min="1" max="1" width="2.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.1796875" style="67" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" s="69" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="68"/>
     </row>
-    <row r="3" spans="2:3" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="70" t="s">
         <v>16</v>
       </c>
@@ -4002,78 +4011,78 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="72" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="B6" s="74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="58" x14ac:dyDescent="0.3">
       <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B8" s="73"/>
     </row>
-    <row r="9" spans="2:3" s="72" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="B9" s="74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.3">
       <c r="B10" s="75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14" x14ac:dyDescent="0.3">
       <c r="B11" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B12" s="73"/>
     </row>
-    <row r="13" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="82" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How This Gantt Chart Was Created")</f>
         <v>► Watch How This Gantt Chart Was Created</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B14" s="73"/>
     </row>
-    <row r="15" spans="2:3" s="72" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="B15" s="74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="29" x14ac:dyDescent="0.3">
       <c r="B16" s="75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B18" s="73"/>
     </row>
-    <row r="19" spans="2:2" s="72" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="B19" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="58" x14ac:dyDescent="0.3">
       <c r="B20" s="75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B21" s="73"/>
     </row>
-    <row r="22" spans="2:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="72.5" x14ac:dyDescent="0.3">
       <c r="B22" s="75" t="s">
         <v>15</v>
       </c>

--- a/Gantt_Chart_Group30.xlsx
+++ b/Gantt_Chart_Group30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenri\Documents\GitHub\COP4331C-ContactManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2005B-895A-425A-B243-DF68647C5C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16944463-5D80-4BC7-8ACA-0E7B8B92D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Project Start:</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Login and Registration</t>
   </si>
   <si>
-    <t>Contact Editing</t>
-  </si>
-  <si>
     <t>ContactCircuit</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>Goal Deadline</t>
   </si>
   <si>
-    <t>Not Complete</t>
-  </si>
-  <si>
     <t>Presentation Date</t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>Floyd</t>
+  </si>
+  <si>
+    <t>Fabian+Maya</t>
+  </si>
+  <si>
+    <t>Contact Srch/+/-/Edit</t>
   </si>
 </sst>
 </file>
@@ -949,6 +949,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -965,12 +971,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1532,8 @@
   <dimension ref="A1:BE36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC19" sqref="AC19"/>
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,7 +1552,7 @@
   <sheetData>
     <row r="1" spans="1:57" ht="28.5" x14ac:dyDescent="0.65">
       <c r="B1" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1560,49 +1560,49 @@
       <c r="F1" s="78"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
     </row>
     <row r="2" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="90">
+      <c r="E2" s="92">
         <v>45663</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="92">
         <f ca="1">TODAY()</f>
-        <v>45684</v>
-      </c>
-      <c r="F3" s="91"/>
+        <v>45686</v>
+      </c>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="6" t="s">
@@ -1611,76 +1611,76 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>45663</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>45670</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>45677</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>45684</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>45691</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>45698</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>45705</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
@@ -2103,14 +2103,14 @@
     <row r="7" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="93">
+      <c r="E7" s="87">
         <v>45704</v>
       </c>
-      <c r="F7" s="93"/>
+      <c r="F7" s="87"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="str">
         <f t="shared" ref="H7:H32" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2169,14 +2169,14 @@
     <row r="8" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="93">
+      <c r="E8" s="87">
         <v>45697</v>
       </c>
-      <c r="F8" s="93"/>
+      <c r="F8" s="87"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="64"/>
@@ -2232,7 +2232,7 @@
     <row r="9" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
@@ -2438,7 +2438,7 @@
     <row r="12" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="31">
@@ -2508,7 +2508,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="31">
         <v>0</v>
@@ -2577,14 +2577,14 @@
     <row r="14" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="92"/>
+      <c r="E14" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="86"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="64"/>
@@ -2928,10 +2928,10 @@
       <c r="D19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="86">
         <v>45671</v>
       </c>
-      <c r="F19" s="92"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3060,7 +3060,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="32">
         <v>45667</v>
@@ -3126,13 +3126,13 @@
     <row r="22" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="47" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="49">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="32">
         <v>45667</v>
@@ -3198,13 +3198,13 @@
     <row r="23" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19"/>
       <c r="B23" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="48" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="32">
         <v>45677</v>
@@ -3270,11 +3270,11 @@
     <row r="24" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19"/>
       <c r="B24" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="32">
         <v>45667</v>
@@ -3343,15 +3343,15 @@
         <v>30</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="86">
         <v>45678</v>
       </c>
-      <c r="F25" s="92"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3544,10 +3544,10 @@
     <row r="28" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
       <c r="B28" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="57">
         <v>0</v>
@@ -3616,7 +3616,7 @@
     <row r="29" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19"/>
       <c r="B29" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="57">
@@ -3686,7 +3686,7 @@
     <row r="30" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19"/>
       <c r="B30" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="57">
@@ -3758,14 +3758,16 @@
       <c r="B31" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="56" t="s">
+        <v>53</v>
+      </c>
       <c r="D31" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="92">
+        <v>34</v>
+      </c>
+      <c r="E31" s="86">
         <v>45685</v>
       </c>
-      <c r="F31" s="92"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3903,12 +3905,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="J1:AA1"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
@@ -3919,6 +3915,12 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="12">

--- a/Gantt_Chart_Group30.xlsx
+++ b/Gantt_Chart_Group30.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenri\Documents\GitHub\COP4331C-ContactManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayal\OneDrive\Desktop\COP4331C-ContactManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16944463-5D80-4BC7-8ACA-0E7B8B92D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521C2E1-61A3-420D-BF6E-4B4A419C45DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="4755" windowWidth="21660" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
     <sheet name="About" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ProjectSchedule!$1:$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Project Start:</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>Implement Design</t>
-  </si>
-  <si>
     <t>Goal Deadline</t>
   </si>
   <si>
@@ -239,10 +236,19 @@
     <t>Floyd</t>
   </si>
   <si>
-    <t>Fabian+Maya</t>
-  </si>
-  <si>
     <t>Contact Srch/+/-/Edit</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Fabian/Maya</t>
   </si>
 </sst>
 </file>
@@ -949,28 +955,28 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,28 +1535,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BE36"/>
+  <dimension ref="A1:BE37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X25" sqref="X25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="29.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="57" width="2.54296875" customWidth="1"/>
-    <col min="62" max="63" width="10.1796875"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="57" width="2.5703125" customWidth="1"/>
+    <col min="62" max="63" width="10.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:57" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
         <v>38</v>
       </c>
@@ -1560,129 +1566,129 @@
       <c r="F1" s="78"/>
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-    </row>
-    <row r="2" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+    </row>
+    <row r="2" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="92">
+      <c r="E2" s="90">
         <v>45663</v>
       </c>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="91"/>
+    </row>
+    <row r="3" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="92">
+      <c r="E3" s="90">
         <f ca="1">TODAY()</f>
-        <v>45686</v>
-      </c>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45691</v>
+      </c>
+      <c r="F3" s="91"/>
+    </row>
+    <row r="4" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="87">
         <f>I5</f>
         <v>45663</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f>P5</f>
         <v>45670</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f>W5</f>
         <v>45677</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87">
         <f>AD5</f>
         <v>45684</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="87">
         <f>AK5</f>
         <v>45691</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f>AR5</f>
         <v>45698</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f>AY5</f>
         <v>45705</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.35">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="G5" s="6"/>
       <c r="I5" s="13">
@@ -1882,7 +1888,7 @@
         <v>45711</v>
       </c>
     </row>
-    <row r="6" spans="1:57" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:57" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -2100,20 +2106,20 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="87">
+      <c r="E7" s="93">
         <v>45704</v>
       </c>
-      <c r="F7" s="87"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23" t="str">
-        <f t="shared" ref="H7:H32" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H7:H33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="64"/>
@@ -2166,17 +2172,17 @@
       <c r="BD7" s="64"/>
       <c r="BE7" s="64"/>
     </row>
-    <row r="8" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="87">
+      <c r="E8" s="93">
         <v>45697</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="64"/>
@@ -2229,7 +2235,7 @@
       <c r="BD8" s="64"/>
       <c r="BE8" s="64"/>
     </row>
-    <row r="9" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="24" t="s">
         <v>44</v>
@@ -2293,7 +2299,7 @@
       <c r="BD9" s="64"/>
       <c r="BE9" s="64"/>
     </row>
-    <row r="10" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="29" t="s">
         <v>26</v>
@@ -2365,7 +2371,7 @@
       <c r="BD10" s="64"/>
       <c r="BE10" s="64"/>
     </row>
-    <row r="11" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="29" t="s">
         <v>28</v>
@@ -2435,7 +2441,7 @@
       <c r="BD11" s="64"/>
       <c r="BE11" s="64"/>
     </row>
-    <row r="12" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="29" t="s">
         <v>43</v>
@@ -2502,13 +2508,13 @@
       <c r="BD12" s="64"/>
       <c r="BE12" s="64"/>
     </row>
-    <row r="13" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="31">
         <v>0</v>
@@ -2574,17 +2580,17 @@
       <c r="BD13" s="64"/>
       <c r="BE13" s="64"/>
     </row>
-    <row r="14" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="86"/>
+      <c r="E14" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="92"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="64"/>
@@ -2637,7 +2643,7 @@
       <c r="BD14" s="64"/>
       <c r="BE14" s="64"/>
     </row>
-    <row r="15" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="34" t="s">
         <v>23</v>
@@ -2701,7 +2707,7 @@
       <c r="BD15" s="64"/>
       <c r="BE15" s="64"/>
     </row>
-    <row r="16" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="39" t="s">
         <v>32</v>
@@ -2773,7 +2779,7 @@
       <c r="BD16" s="64"/>
       <c r="BE16" s="64"/>
     </row>
-    <row r="17" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="39" t="s">
         <v>33</v>
@@ -2845,7 +2851,7 @@
       <c r="BD17" s="64"/>
       <c r="BE17" s="64"/>
     </row>
-    <row r="18" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="39" t="s">
         <v>31</v>
@@ -2917,7 +2923,7 @@
       <c r="BD18" s="64"/>
       <c r="BE18" s="64"/>
     </row>
-    <row r="19" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="39" t="s">
         <v>30</v>
@@ -2928,10 +2934,10 @@
       <c r="D19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="92">
         <v>45671</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23" t="str">
         <f t="shared" si="5"/>
@@ -2987,7 +2993,7 @@
       <c r="BD19" s="64"/>
       <c r="BE19" s="64"/>
     </row>
-    <row r="20" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="42" t="s">
         <v>24</v>
@@ -3051,7 +3057,7 @@
       <c r="BD20" s="64"/>
       <c r="BE20" s="64"/>
     </row>
-    <row r="21" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="47" t="s">
         <v>37</v>
@@ -3123,13 +3129,13 @@
       <c r="BD21" s="64"/>
       <c r="BE21" s="64"/>
     </row>
-    <row r="22" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="49">
         <v>0.75</v>
@@ -3195,7 +3201,7 @@
       <c r="BD22" s="64"/>
       <c r="BE22" s="64"/>
     </row>
-    <row r="23" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="47" t="s">
         <v>42</v>
@@ -3267,7 +3273,7 @@
       <c r="BD23" s="64"/>
       <c r="BE23" s="64"/>
     </row>
-    <row r="24" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="47" t="s">
         <v>45</v>
@@ -3337,21 +3343,21 @@
       <c r="BD24" s="64"/>
       <c r="BE24" s="64"/>
     </row>
-    <row r="25" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="47" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="92">
         <v>45678</v>
       </c>
-      <c r="F25" s="86"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3407,7 +3413,7 @@
       <c r="BD25" s="64"/>
       <c r="BE25" s="64"/>
     </row>
-    <row r="26" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="50" t="s">
         <v>25</v>
@@ -3471,12 +3477,14 @@
       <c r="BD26" s="64"/>
       <c r="BE26" s="64"/>
     </row>
-    <row r="27" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="56" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="57">
         <v>1</v>
       </c>
@@ -3484,12 +3492,12 @@
         <v>45665</v>
       </c>
       <c r="F27" s="33">
-        <v>45669</v>
+        <v>45665</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I27" s="64"/>
       <c r="J27" s="64"/>
@@ -3541,16 +3549,16 @@
       <c r="BD27" s="64"/>
       <c r="BE27" s="64"/>
     </row>
-    <row r="28" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="55" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="32">
         <v>45672</v>
@@ -3613,14 +3621,16 @@
       <c r="BD28" s="64"/>
       <c r="BE28" s="64"/>
     </row>
-    <row r="29" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="56"/>
+        <v>53</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>55</v>
+      </c>
       <c r="D29" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="32">
         <v>45677</v>
@@ -3683,26 +3693,25 @@
       <c r="BD29" s="64"/>
       <c r="BE29" s="64"/>
     </row>
-    <row r="30" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="56"/>
+        <v>54</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>55</v>
+      </c>
       <c r="D30" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="32">
-        <v>45682</v>
+        <v>45684</v>
       </c>
       <c r="F30" s="33">
-        <v>45695</v>
+        <v>45690</v>
       </c>
       <c r="G30" s="23"/>
-      <c r="H30" s="23">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
+      <c r="H30" s="23"/>
       <c r="I30" s="64"/>
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
@@ -3753,25 +3762,27 @@
       <c r="BD30" s="64"/>
       <c r="BE30" s="64"/>
     </row>
-    <row r="31" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="86">
-        <v>45685</v>
-      </c>
-      <c r="F31" s="86"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="57">
+        <v>1</v>
+      </c>
+      <c r="E31" s="32">
+        <v>45682</v>
+      </c>
+      <c r="F31" s="33">
+        <v>45695</v>
+      </c>
       <c r="G31" s="23"/>
-      <c r="H31" s="23" t="str">
+      <c r="H31" s="23">
         <f t="shared" si="5"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="I31" s="64"/>
       <c r="J31" s="64"/>
@@ -3795,7 +3806,7 @@
       <c r="AB31" s="64"/>
       <c r="AC31" s="64"/>
       <c r="AD31" s="64"/>
-      <c r="AE31" s="83"/>
+      <c r="AE31" s="64"/>
       <c r="AF31" s="64"/>
       <c r="AG31" s="64"/>
       <c r="AH31" s="64"/>
@@ -3823,88 +3834,164 @@
       <c r="BD31" s="64"/>
       <c r="BE31" s="64"/>
     </row>
-    <row r="32" spans="1:57" s="3" customFormat="1" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63" t="str">
+      <c r="B32" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="92">
+        <v>45685</v>
+      </c>
+      <c r="F32" s="92"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
-      <c r="AZ32" s="66"/>
-      <c r="BA32" s="66"/>
-      <c r="BB32" s="66"/>
-      <c r="BC32" s="66"/>
-      <c r="BD32" s="66"/>
-      <c r="BE32" s="66"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="F34" s="77">
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="83"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="85"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="64"/>
+      <c r="AV32" s="64"/>
+      <c r="AW32" s="64"/>
+      <c r="AX32" s="84"/>
+      <c r="AY32" s="64"/>
+      <c r="AZ32" s="64"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="64"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+    </row>
+    <row r="33" spans="1:57" s="3" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="66"/>
+      <c r="AV33" s="66"/>
+      <c r="AW33" s="66"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="66"/>
+      <c r="BA33" s="66"/>
+      <c r="BB33" s="66"/>
+      <c r="BC33" s="66"/>
+      <c r="BD33" s="66"/>
+      <c r="BE33" s="66"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="F35" s="77">
         <v>43113</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="81"/>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="80"/>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B36" s="81"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B37" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="J1:AA1"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
@@ -3915,14 +4002,8 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D32">
+  <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3936,12 +4017,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BE32">
+  <conditionalFormatting sqref="I5:BE33">
     <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND(today&gt;=I$5,today&lt;I$5+1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BE32">
+  <conditionalFormatting sqref="I7:BE33">
     <cfRule type="expression" dxfId="1" priority="25">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3974,7 +4055,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D32</xm:sqref>
+          <xm:sqref>D7:D33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3988,103 +4069,103 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.1796875" style="67" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" style="67" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="68"/>
     </row>
-    <row r="3" spans="2:3" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="70"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:3" s="72" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B6" s="74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="58" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="73"/>
     </row>
-    <row r="9" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:3" s="72" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B9" s="74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B10" s="75" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
     </row>
-    <row r="13" spans="2:3" ht="14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="82" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","► Watch How This Gantt Chart Was Created")</f>
         <v>► Watch How This Gantt Chart Was Created</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
     </row>
-    <row r="15" spans="2:3" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:3" s="72" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B15" s="74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="29" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B16" s="75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
     </row>
-    <row r="19" spans="2:2" s="72" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:2" s="72" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B19" s="74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="60" x14ac:dyDescent="0.2">
       <c r="B20" s="75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
     </row>
-    <row r="22" spans="2:2" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="75" x14ac:dyDescent="0.2">
       <c r="B22" s="75" t="s">
         <v>15</v>
       </c>
